--- a/data/pca/factorExposure/factorExposure_2015-04-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02262798971412324</v>
+        <v>0.01318528531907874</v>
       </c>
       <c r="C2">
-        <v>0.02899311879264578</v>
+        <v>0.05547232334108296</v>
       </c>
       <c r="D2">
-        <v>0.1340751301314516</v>
+        <v>-0.1222220451232556</v>
       </c>
       <c r="E2">
-        <v>0.0356158370693224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03402033628280283</v>
+      </c>
+      <c r="F2">
+        <v>0.02926828791574115</v>
+      </c>
+      <c r="G2">
+        <v>-0.06331344081114612</v>
+      </c>
+      <c r="H2">
+        <v>-0.1303618480667225</v>
+      </c>
+      <c r="I2">
+        <v>-0.05858089680409548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04400180185772523</v>
+        <v>0.01809435825157247</v>
       </c>
       <c r="C4">
-        <v>0.07212447374283808</v>
+        <v>0.1070907583600494</v>
       </c>
       <c r="D4">
-        <v>0.09614219251273426</v>
+        <v>-0.1171403943946454</v>
       </c>
       <c r="E4">
-        <v>0.1066243443372745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02455981252179382</v>
+      </c>
+      <c r="F4">
+        <v>0.1009398835521985</v>
+      </c>
+      <c r="G4">
+        <v>0.01872412815569893</v>
+      </c>
+      <c r="H4">
+        <v>-0.04388840103313876</v>
+      </c>
+      <c r="I4">
+        <v>0.09069979670327867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02786578856856159</v>
+        <v>0.03273870277526979</v>
       </c>
       <c r="C6">
-        <v>0.01677412342836377</v>
+        <v>0.04013596632344889</v>
       </c>
       <c r="D6">
-        <v>0.1184646710323896</v>
+        <v>-0.1083693896113457</v>
       </c>
       <c r="E6">
-        <v>0.06863638080828631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.07404917456985657</v>
+      </c>
+      <c r="F6">
+        <v>0.04595001079521389</v>
+      </c>
+      <c r="G6">
+        <v>0.03690280048027725</v>
+      </c>
+      <c r="H6">
+        <v>-0.01976534957227188</v>
+      </c>
+      <c r="I6">
+        <v>0.001521620309114884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.002084558966673923</v>
+        <v>0.006482690170824586</v>
       </c>
       <c r="C7">
-        <v>0.02545282762090834</v>
+        <v>0.04008035213452729</v>
       </c>
       <c r="D7">
-        <v>0.1058398089957411</v>
+        <v>-0.08921369641170371</v>
       </c>
       <c r="E7">
-        <v>0.03111018604674232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.056175975185374</v>
+      </c>
+      <c r="F7">
+        <v>0.009916008037713937</v>
+      </c>
+      <c r="G7">
+        <v>0.06805379605158161</v>
+      </c>
+      <c r="H7">
+        <v>-0.0531923642618812</v>
+      </c>
+      <c r="I7">
+        <v>0.05625851381660096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003209108182405026</v>
+        <v>-0.006317708260363557</v>
       </c>
       <c r="C8">
-        <v>0.02949723487527882</v>
+        <v>0.03988314623404639</v>
       </c>
       <c r="D8">
-        <v>0.08250395135409137</v>
+        <v>-0.06541625842788844</v>
       </c>
       <c r="E8">
-        <v>0.04603931363586508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04219643187065947</v>
+      </c>
+      <c r="F8">
+        <v>0.0453258837295979</v>
+      </c>
+      <c r="G8">
+        <v>-0.04178023705329767</v>
+      </c>
+      <c r="H8">
+        <v>-0.04278315592704626</v>
+      </c>
+      <c r="I8">
+        <v>0.03307373889156948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03315300546376136</v>
+        <v>0.01374006071463315</v>
       </c>
       <c r="C9">
-        <v>0.06402019028990083</v>
+        <v>0.08950279781686964</v>
       </c>
       <c r="D9">
-        <v>0.1002550038153153</v>
+        <v>-0.1034665989543544</v>
       </c>
       <c r="E9">
-        <v>0.08672901288325593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02196991309879425</v>
+      </c>
+      <c r="F9">
+        <v>0.06747007536363665</v>
+      </c>
+      <c r="G9">
+        <v>0.04331393854393067</v>
+      </c>
+      <c r="H9">
+        <v>-0.04487077398191387</v>
+      </c>
+      <c r="I9">
+        <v>0.05019892663871567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1840580090892737</v>
+        <v>0.2411638934465488</v>
       </c>
       <c r="C10">
-        <v>-0.1622346656737523</v>
+        <v>-0.09043727589628738</v>
       </c>
       <c r="D10">
-        <v>-0.0171402939067505</v>
+        <v>0.01170851518054025</v>
       </c>
       <c r="E10">
-        <v>0.04156040141910363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01806638671207358</v>
+      </c>
+      <c r="F10">
+        <v>0.04120216111539256</v>
+      </c>
+      <c r="G10">
+        <v>-0.01926935313536185</v>
+      </c>
+      <c r="H10">
+        <v>0.008743567656935399</v>
+      </c>
+      <c r="I10">
+        <v>-0.01089405808769166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0170014164721671</v>
+        <v>0.01070452670208792</v>
       </c>
       <c r="C11">
-        <v>0.04194836203661521</v>
+        <v>0.05827626388100899</v>
       </c>
       <c r="D11">
-        <v>0.04213119644637552</v>
+        <v>-0.03743144167845077</v>
       </c>
       <c r="E11">
-        <v>-0.009386925488212636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02572559308945086</v>
+      </c>
+      <c r="F11">
+        <v>-0.01281510206502342</v>
+      </c>
+      <c r="G11">
+        <v>0.03621877412828052</v>
+      </c>
+      <c r="H11">
+        <v>-0.02413719186167358</v>
+      </c>
+      <c r="I11">
+        <v>0.03886273799362032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01553638155692727</v>
+        <v>0.01065291656468671</v>
       </c>
       <c r="C12">
-        <v>0.04278199013972479</v>
+        <v>0.05110811055375782</v>
       </c>
       <c r="D12">
-        <v>0.05518324804460373</v>
+        <v>-0.04472032889574271</v>
       </c>
       <c r="E12">
-        <v>0.003079719874093064</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.02085138490960776</v>
+      </c>
+      <c r="F12">
+        <v>-0.01485260382093417</v>
+      </c>
+      <c r="G12">
+        <v>0.06042852729396901</v>
+      </c>
+      <c r="H12">
+        <v>-0.03627751009406936</v>
+      </c>
+      <c r="I12">
+        <v>0.01236267799111174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.006561022265261333</v>
+        <v>0.002608916748926121</v>
       </c>
       <c r="C13">
-        <v>0.02643519605100835</v>
+        <v>0.05791325316998011</v>
       </c>
       <c r="D13">
-        <v>0.1249040510731124</v>
+        <v>-0.1545816172325317</v>
       </c>
       <c r="E13">
-        <v>0.06436799010362346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04582423123710556</v>
+      </c>
+      <c r="F13">
+        <v>0.0354478776401121</v>
+      </c>
+      <c r="G13">
+        <v>0.03572313351491185</v>
+      </c>
+      <c r="H13">
+        <v>-0.0980806728958715</v>
+      </c>
+      <c r="I13">
+        <v>-0.04856440214916252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003242119994778558</v>
+        <v>0.004006932319846385</v>
       </c>
       <c r="C14">
-        <v>0.01943668459579659</v>
+        <v>0.03483852361751283</v>
       </c>
       <c r="D14">
-        <v>0.08015838549827628</v>
+        <v>-0.08761815172715044</v>
       </c>
       <c r="E14">
-        <v>0.02638814462108113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.06357642355134825</v>
+      </c>
+      <c r="F14">
+        <v>0.0261806390513297</v>
+      </c>
+      <c r="G14">
+        <v>0.07533703211086663</v>
+      </c>
+      <c r="H14">
+        <v>-0.1252880657729183</v>
+      </c>
+      <c r="I14">
+        <v>0.02462358493283171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003336841742270951</v>
+        <v>-0.004985895034714472</v>
       </c>
       <c r="C15">
-        <v>0.01259479905676997</v>
+        <v>0.02852807209387108</v>
       </c>
       <c r="D15">
-        <v>0.03855649323592711</v>
+        <v>-0.05622901741004848</v>
       </c>
       <c r="E15">
-        <v>0.005024037549562198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.0240166637926978</v>
+      </c>
+      <c r="F15">
+        <v>0.007437129461194607</v>
+      </c>
+      <c r="G15">
+        <v>0.01406161616797469</v>
+      </c>
+      <c r="H15">
+        <v>-0.05261159029535884</v>
+      </c>
+      <c r="I15">
+        <v>0.03091038352569612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01581047941355274</v>
+        <v>0.009401915501724643</v>
       </c>
       <c r="C16">
-        <v>0.03843876033911705</v>
+        <v>0.05059396409082031</v>
       </c>
       <c r="D16">
-        <v>0.0481216687846366</v>
+        <v>-0.0405024896203354</v>
       </c>
       <c r="E16">
-        <v>0.002878854000570557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02674564805842129</v>
+      </c>
+      <c r="F16">
+        <v>-0.006608118276152541</v>
+      </c>
+      <c r="G16">
+        <v>0.04454790638936704</v>
+      </c>
+      <c r="H16">
+        <v>-0.01954577616352861</v>
+      </c>
+      <c r="I16">
+        <v>0.02566033636427947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>9.743202630244335e-05</v>
+        <v>-0.002590756637180438</v>
       </c>
       <c r="C19">
-        <v>0.02200464800653259</v>
+        <v>0.01766504727239131</v>
       </c>
       <c r="D19">
-        <v>0.07006754873796076</v>
+        <v>-0.04786084556727765</v>
       </c>
       <c r="E19">
-        <v>0.037765107794685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.005253950556946612</v>
+      </c>
+      <c r="F19">
+        <v>0.01214525996647582</v>
+      </c>
+      <c r="G19">
+        <v>0.01127933353204244</v>
+      </c>
+      <c r="H19">
+        <v>-0.04857602090234684</v>
+      </c>
+      <c r="I19">
+        <v>-0.002296086612422204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002873995363371858</v>
+        <v>0.004682840695370841</v>
       </c>
       <c r="C20">
-        <v>0.02687540793062882</v>
+        <v>0.04324184545563256</v>
       </c>
       <c r="D20">
-        <v>0.07158918178568703</v>
+        <v>-0.08056375612047234</v>
       </c>
       <c r="E20">
-        <v>0.04789697874400689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.03089354209170736</v>
+      </c>
+      <c r="F20">
+        <v>0.02669332768051876</v>
+      </c>
+      <c r="G20">
+        <v>0.04738783550033473</v>
+      </c>
+      <c r="H20">
+        <v>-0.03204158896458803</v>
+      </c>
+      <c r="I20">
+        <v>0.05251106180244627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.008758725895372313</v>
+        <v>0.004079315404527386</v>
       </c>
       <c r="C21">
-        <v>0.03188174112033466</v>
+        <v>0.04942918069817294</v>
       </c>
       <c r="D21">
-        <v>0.1253126731525858</v>
+        <v>-0.1167844351291443</v>
       </c>
       <c r="E21">
-        <v>0.1026880096931652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03989425233908789</v>
+      </c>
+      <c r="F21">
+        <v>0.08986621719786619</v>
+      </c>
+      <c r="G21">
+        <v>0.07353658326265079</v>
+      </c>
+      <c r="H21">
+        <v>-0.1886939904944856</v>
+      </c>
+      <c r="I21">
+        <v>-0.02386904173989616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.00322347091195746</v>
+        <v>-0.01137454015086101</v>
       </c>
       <c r="C22">
-        <v>0.072230100467812</v>
+        <v>0.09461512766673755</v>
       </c>
       <c r="D22">
-        <v>0.3094064107125679</v>
+        <v>-0.2718710792983648</v>
       </c>
       <c r="E22">
-        <v>0.08991965910435473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.09672438792040849</v>
+      </c>
+      <c r="F22">
+        <v>0.03459137675999262</v>
+      </c>
+      <c r="G22">
+        <v>-0.5256599952823113</v>
+      </c>
+      <c r="H22">
+        <v>0.1624613652890335</v>
+      </c>
+      <c r="I22">
+        <v>-0.0511997752745547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003603494674821567</v>
+        <v>-0.008182300733666287</v>
       </c>
       <c r="C23">
-        <v>0.07251989174734338</v>
+        <v>0.09634435673323639</v>
       </c>
       <c r="D23">
-        <v>0.3080633575195581</v>
+        <v>-0.2742330932476464</v>
       </c>
       <c r="E23">
-        <v>0.08998109941718334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.09154656457146131</v>
+      </c>
+      <c r="F23">
+        <v>0.03749830546621001</v>
+      </c>
+      <c r="G23">
+        <v>-0.5089285865858849</v>
+      </c>
+      <c r="H23">
+        <v>0.1537138955851357</v>
+      </c>
+      <c r="I23">
+        <v>-0.05046777134703288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02223025360773758</v>
+        <v>0.01044535663886511</v>
       </c>
       <c r="C24">
-        <v>0.05866204800098594</v>
+        <v>0.06772171497761072</v>
       </c>
       <c r="D24">
-        <v>0.05731742258560654</v>
+        <v>-0.04240220563797168</v>
       </c>
       <c r="E24">
-        <v>0.004148907892874057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03235013039641998</v>
+      </c>
+      <c r="F24">
+        <v>-0.005415189962995413</v>
+      </c>
+      <c r="G24">
+        <v>0.04696444622974809</v>
+      </c>
+      <c r="H24">
+        <v>-0.04753251837166416</v>
+      </c>
+      <c r="I24">
+        <v>0.03888611982809975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02242719592111771</v>
+        <v>0.01485010181666231</v>
       </c>
       <c r="C25">
-        <v>0.05070286759322192</v>
+        <v>0.06270271317587285</v>
       </c>
       <c r="D25">
-        <v>0.05547317300399864</v>
+        <v>-0.04703885819055685</v>
       </c>
       <c r="E25">
-        <v>0.01162204208407142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.02037296705510871</v>
+      </c>
+      <c r="F25">
+        <v>-0.004686136247088941</v>
+      </c>
+      <c r="G25">
+        <v>0.03707081595126312</v>
+      </c>
+      <c r="H25">
+        <v>-0.01740078309254864</v>
+      </c>
+      <c r="I25">
+        <v>0.02324183543156911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01024773165777912</v>
+        <v>0.01797461678675684</v>
       </c>
       <c r="C26">
-        <v>0.01645841467359236</v>
+        <v>0.02933434012470858</v>
       </c>
       <c r="D26">
-        <v>0.06206901672222454</v>
+        <v>-0.05381776949221729</v>
       </c>
       <c r="E26">
-        <v>0.03503493138717049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04320763780478885</v>
+      </c>
+      <c r="F26">
+        <v>0.04381724672821588</v>
+      </c>
+      <c r="G26">
+        <v>0.04764634646988565</v>
+      </c>
+      <c r="H26">
+        <v>-0.09052910958888571</v>
+      </c>
+      <c r="I26">
+        <v>0.03066684702183648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2673515973008579</v>
+        <v>0.3154117955013878</v>
       </c>
       <c r="C28">
-        <v>-0.1860949987538915</v>
+        <v>-0.09094772507401391</v>
       </c>
       <c r="D28">
-        <v>-0.008346728405378109</v>
+        <v>0.02410652564721938</v>
       </c>
       <c r="E28">
-        <v>0.03766562241376104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05203945216593307</v>
+      </c>
+      <c r="F28">
+        <v>0.04378020368967853</v>
+      </c>
+      <c r="G28">
+        <v>-0.05760453720034304</v>
+      </c>
+      <c r="H28">
+        <v>-0.03542465106168757</v>
+      </c>
+      <c r="I28">
+        <v>0.009027242942134747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002080214710334261</v>
+        <v>0.0013595688889311</v>
       </c>
       <c r="C29">
-        <v>0.02344728014582804</v>
+        <v>0.04037752515599217</v>
       </c>
       <c r="D29">
-        <v>0.07758051733354093</v>
+        <v>-0.09047307517345919</v>
       </c>
       <c r="E29">
-        <v>0.03650490894720949</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.07030935761400993</v>
+      </c>
+      <c r="F29">
+        <v>0.0286034325264678</v>
+      </c>
+      <c r="G29">
+        <v>0.1005753950248547</v>
+      </c>
+      <c r="H29">
+        <v>-0.1390906131746183</v>
+      </c>
+      <c r="I29">
+        <v>0.02769546044245228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02564845557738796</v>
+        <v>0.01422981502441123</v>
       </c>
       <c r="C30">
-        <v>0.0713339671129304</v>
+        <v>0.09709760311589186</v>
       </c>
       <c r="D30">
-        <v>0.1446947691523575</v>
+        <v>-0.1259501641169352</v>
       </c>
       <c r="E30">
-        <v>0.05069381544786798</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.06440949991248598</v>
+      </c>
+      <c r="F30">
+        <v>0.02108914784100411</v>
+      </c>
+      <c r="G30">
+        <v>0.01397460778686138</v>
+      </c>
+      <c r="H30">
+        <v>-0.0346039520604024</v>
+      </c>
+      <c r="I30">
+        <v>0.06285976874327777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03466916959728011</v>
+        <v>0.008464675561365143</v>
       </c>
       <c r="C31">
-        <v>0.0849900227358782</v>
+        <v>0.09488591260095199</v>
       </c>
       <c r="D31">
-        <v>0.05257751910550841</v>
+        <v>-0.03541569055240807</v>
       </c>
       <c r="E31">
-        <v>0.0224095060146937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02180811124914798</v>
+      </c>
+      <c r="F31">
+        <v>0.01754247892250551</v>
+      </c>
+      <c r="G31">
+        <v>0.02023876679247366</v>
+      </c>
+      <c r="H31">
+        <v>-0.03899832929580644</v>
+      </c>
+      <c r="I31">
+        <v>0.02128856890386105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01785267540622183</v>
+        <v>0.01315621090814653</v>
       </c>
       <c r="C32">
-        <v>0.03983728816363264</v>
+        <v>0.0534249524423615</v>
       </c>
       <c r="D32">
-        <v>0.07254642411242795</v>
+        <v>-0.07687973111009981</v>
       </c>
       <c r="E32">
-        <v>0.05772559221466401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0007916178507892884</v>
+      </c>
+      <c r="F32">
+        <v>0.04484462723442163</v>
+      </c>
+      <c r="G32">
+        <v>0.02723650847372149</v>
+      </c>
+      <c r="H32">
+        <v>-0.0649030975314102</v>
+      </c>
+      <c r="I32">
+        <v>0.004042284135269011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006930464759548825</v>
+        <v>0.007234659204030196</v>
       </c>
       <c r="C33">
-        <v>0.04271275435196834</v>
+        <v>0.06280127373874786</v>
       </c>
       <c r="D33">
-        <v>0.1102464979348202</v>
+        <v>-0.1118799635026297</v>
       </c>
       <c r="E33">
-        <v>0.05426947691780314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03866076928268464</v>
+      </c>
+      <c r="F33">
+        <v>0.02881105527294394</v>
+      </c>
+      <c r="G33">
+        <v>0.03245531727471348</v>
+      </c>
+      <c r="H33">
+        <v>-0.04842571036419947</v>
+      </c>
+      <c r="I33">
+        <v>0.02253974219232337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02072017525576847</v>
+        <v>0.009211519845621591</v>
       </c>
       <c r="C34">
-        <v>0.06040637953474993</v>
+        <v>0.06351018894669039</v>
       </c>
       <c r="D34">
-        <v>0.05206003766034992</v>
+        <v>-0.02376099394574645</v>
       </c>
       <c r="E34">
-        <v>-0.03804098511013509</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02879579627748455</v>
+      </c>
+      <c r="F34">
+        <v>-0.03980674301284042</v>
+      </c>
+      <c r="G34">
+        <v>0.0339064068149857</v>
+      </c>
+      <c r="H34">
+        <v>-0.03016178043253233</v>
+      </c>
+      <c r="I34">
+        <v>0.01737864634248865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003349321391910708</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01277251298601221</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03185596396827923</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.009207993404842475</v>
+      </c>
+      <c r="F35">
+        <v>0.01645951919069599</v>
+      </c>
+      <c r="G35">
+        <v>0.04142589716743569</v>
+      </c>
+      <c r="H35">
+        <v>-0.04933941140220699</v>
+      </c>
+      <c r="I35">
+        <v>0.02135411600631022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.007158811708526399</v>
+        <v>0.01133849214986037</v>
       </c>
       <c r="C36">
-        <v>0.009332523795458287</v>
+        <v>0.02399883497209012</v>
       </c>
       <c r="D36">
-        <v>0.06617676301948626</v>
+        <v>-0.06679612680066195</v>
       </c>
       <c r="E36">
-        <v>0.05699050906745576</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.035226200727837</v>
+      </c>
+      <c r="F36">
+        <v>0.0488678733138329</v>
+      </c>
+      <c r="G36">
+        <v>0.03357881155133256</v>
+      </c>
+      <c r="H36">
+        <v>-0.05995087456052776</v>
+      </c>
+      <c r="I36">
+        <v>0.02372267732355177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005983945087463553</v>
+        <v>0.01034732460186405</v>
       </c>
       <c r="C38">
-        <v>0.009442314001116166</v>
+        <v>0.02790178787274879</v>
       </c>
       <c r="D38">
-        <v>0.07493978008046451</v>
+        <v>-0.08510406836266125</v>
       </c>
       <c r="E38">
-        <v>0.01493716988570844</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01744849189105947</v>
+      </c>
+      <c r="F38">
+        <v>0.002914347537454717</v>
+      </c>
+      <c r="G38">
+        <v>0.009643390049123908</v>
+      </c>
+      <c r="H38">
+        <v>-0.0610578951239663</v>
+      </c>
+      <c r="I38">
+        <v>0.05755099358368304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01546817493816017</v>
+        <v>0.004296373572347013</v>
       </c>
       <c r="C39">
-        <v>0.06175154012221064</v>
+        <v>0.08166230885634727</v>
       </c>
       <c r="D39">
-        <v>0.1003606791305726</v>
+        <v>-0.08499152865604294</v>
       </c>
       <c r="E39">
-        <v>0.01106205549718092</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05831725286716526</v>
+      </c>
+      <c r="F39">
+        <v>-0.006351797813477936</v>
+      </c>
+      <c r="G39">
+        <v>0.0704528761147893</v>
+      </c>
+      <c r="H39">
+        <v>-0.0710693877158175</v>
+      </c>
+      <c r="I39">
+        <v>0.04774729313927244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01885704405903732</v>
+        <v>0.01419270059151042</v>
       </c>
       <c r="C40">
-        <v>0.02251245043220997</v>
+        <v>0.0425980824925507</v>
       </c>
       <c r="D40">
-        <v>0.112315671021812</v>
+        <v>-0.09068981755585917</v>
       </c>
       <c r="E40">
-        <v>0.007441669652774024</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.05786173242702755</v>
+      </c>
+      <c r="F40">
+        <v>-0.02840036730805022</v>
+      </c>
+      <c r="G40">
+        <v>-0.009175910231281299</v>
+      </c>
+      <c r="H40">
+        <v>-0.0952522536077654</v>
+      </c>
+      <c r="I40">
+        <v>-0.007490859788727634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.00943446371605906</v>
+        <v>0.0167860539831863</v>
       </c>
       <c r="C41">
-        <v>0.005902710036484455</v>
+        <v>0.02148477588675293</v>
       </c>
       <c r="D41">
-        <v>0.03262775768517066</v>
+        <v>-0.04140433055423297</v>
       </c>
       <c r="E41">
-        <v>0.03038883214367128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.00261619688668522</v>
+      </c>
+      <c r="F41">
+        <v>0.02332550777401439</v>
+      </c>
+      <c r="G41">
+        <v>0.01822954692754332</v>
+      </c>
+      <c r="H41">
+        <v>-0.03762188094064451</v>
+      </c>
+      <c r="I41">
+        <v>0.02039369509311163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0006425215931568142</v>
+        <v>0.008854564851538167</v>
       </c>
       <c r="C43">
-        <v>0.004607904729839581</v>
+        <v>0.01752819188863118</v>
       </c>
       <c r="D43">
-        <v>0.04924132087810783</v>
+        <v>-0.04996644501221512</v>
       </c>
       <c r="E43">
-        <v>0.02723968350847409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01501498041229053</v>
+      </c>
+      <c r="F43">
+        <v>0.02251775652115608</v>
+      </c>
+      <c r="G43">
+        <v>0.02547578237987043</v>
+      </c>
+      <c r="H43">
+        <v>-0.04511763089867721</v>
+      </c>
+      <c r="I43">
+        <v>0.04016339007498163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02040041589786193</v>
+        <v>0.01047044227710003</v>
       </c>
       <c r="C44">
-        <v>0.02498670608488869</v>
+        <v>0.04870432869331315</v>
       </c>
       <c r="D44">
-        <v>0.08424381282993131</v>
+        <v>-0.09871925928096607</v>
       </c>
       <c r="E44">
-        <v>0.06304058523740255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04617918653883277</v>
+      </c>
+      <c r="F44">
+        <v>0.03800922465627055</v>
+      </c>
+      <c r="G44">
+        <v>0.006651393387370252</v>
+      </c>
+      <c r="H44">
+        <v>-0.06476023930725802</v>
+      </c>
+      <c r="I44">
+        <v>0.0431942340246449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006194889874305465</v>
+        <v>-0.0009212330924688096</v>
       </c>
       <c r="C46">
-        <v>0.03207814161087374</v>
+        <v>0.04339962166654055</v>
       </c>
       <c r="D46">
-        <v>0.07485425524366318</v>
+        <v>-0.06637265348640617</v>
       </c>
       <c r="E46">
-        <v>0.03198038347727448</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.05058379844445802</v>
+      </c>
+      <c r="F46">
+        <v>0.0317780571927685</v>
+      </c>
+      <c r="G46">
+        <v>0.05971386997359251</v>
+      </c>
+      <c r="H46">
+        <v>-0.1112493254945794</v>
+      </c>
+      <c r="I46">
+        <v>0.04983748778456513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0745267620179907</v>
+        <v>0.03112918812136598</v>
       </c>
       <c r="C47">
-        <v>0.1094773970764065</v>
+        <v>0.1271766588741112</v>
       </c>
       <c r="D47">
-        <v>0.04443269758781726</v>
+        <v>-0.01976789410485432</v>
       </c>
       <c r="E47">
-        <v>0.02130993314778913</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009697998433555784</v>
+      </c>
+      <c r="F47">
+        <v>-0.003156055183871138</v>
+      </c>
+      <c r="G47">
+        <v>0.05644232235147767</v>
+      </c>
+      <c r="H47">
+        <v>-0.02195763625883002</v>
+      </c>
+      <c r="I47">
+        <v>0.03099206191798631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009758752557980544</v>
+        <v>0.0148188044127511</v>
       </c>
       <c r="C48">
-        <v>0.01983621109243129</v>
+        <v>0.03480928510277102</v>
       </c>
       <c r="D48">
-        <v>0.06476650483733437</v>
+        <v>-0.06860837170888642</v>
       </c>
       <c r="E48">
-        <v>0.05769317347932874</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02547829805665864</v>
+      </c>
+      <c r="F48">
+        <v>0.05539337519230943</v>
+      </c>
+      <c r="G48">
+        <v>0.04988369858505583</v>
+      </c>
+      <c r="H48">
+        <v>-0.09553856174652361</v>
+      </c>
+      <c r="I48">
+        <v>0.05007956117555843</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0313670379942567</v>
+        <v>0.01275157040569619</v>
       </c>
       <c r="C50">
-        <v>0.0593444960472187</v>
+        <v>0.07635000143053011</v>
       </c>
       <c r="D50">
-        <v>0.05357086862065793</v>
+        <v>-0.04482914498024732</v>
       </c>
       <c r="E50">
-        <v>0.01417795713741042</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01769061580494693</v>
+      </c>
+      <c r="F50">
+        <v>0.009461692134942362</v>
+      </c>
+      <c r="G50">
+        <v>0.007705882416067449</v>
+      </c>
+      <c r="H50">
+        <v>-0.02659142053935829</v>
+      </c>
+      <c r="I50">
+        <v>0.02833540041287025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003876806218111375</v>
+        <v>-0.0002537713822907441</v>
       </c>
       <c r="C51">
-        <v>0.007015913744077247</v>
+        <v>0.01816226812241982</v>
       </c>
       <c r="D51">
-        <v>0.05236172579248534</v>
+        <v>-0.04452007870288546</v>
       </c>
       <c r="E51">
-        <v>0.02181081301146693</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03882844481672874</v>
+      </c>
+      <c r="F51">
+        <v>0.03649485319707574</v>
+      </c>
+      <c r="G51">
+        <v>0.006651671514902056</v>
+      </c>
+      <c r="H51">
+        <v>-0.07634219834301106</v>
+      </c>
+      <c r="I51">
+        <v>0.01181062503288311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1054240315980643</v>
+        <v>0.05479570411416474</v>
       </c>
       <c r="C53">
-        <v>0.1290282696226677</v>
+        <v>0.1584217278227991</v>
       </c>
       <c r="D53">
-        <v>-0.01493824410541774</v>
+        <v>0.02579076720053528</v>
       </c>
       <c r="E53">
-        <v>0.03915801813578001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03323899466606151</v>
+      </c>
+      <c r="F53">
+        <v>0.04406022379184794</v>
+      </c>
+      <c r="G53">
+        <v>0.0070777391014341</v>
+      </c>
+      <c r="H53">
+        <v>-0.01350605248758594</v>
+      </c>
+      <c r="I53">
+        <v>0.01636251346352925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01117999147127456</v>
+        <v>0.01106075784067558</v>
       </c>
       <c r="C54">
-        <v>0.02421536972195761</v>
+        <v>0.04112746132142958</v>
       </c>
       <c r="D54">
-        <v>0.08549848744963104</v>
+        <v>-0.07472038998851095</v>
       </c>
       <c r="E54">
-        <v>0.01734309683221381</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02520786538991968</v>
+      </c>
+      <c r="F54">
+        <v>0.003806254499240467</v>
+      </c>
+      <c r="G54">
+        <v>0.02654242762214661</v>
+      </c>
+      <c r="H54">
+        <v>-0.0706245159284266</v>
+      </c>
+      <c r="I54">
+        <v>0.05455264591810435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09138098077777923</v>
+        <v>0.04219954804872823</v>
       </c>
       <c r="C55">
-        <v>0.1096551176009185</v>
+        <v>0.1307755711018093</v>
       </c>
       <c r="D55">
-        <v>-0.0009721758647891616</v>
+        <v>0.0419434834416576</v>
       </c>
       <c r="E55">
-        <v>-0.004645208420611934</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.003027103303277231</v>
+      </c>
+      <c r="F55">
+        <v>0.003001231893131109</v>
+      </c>
+      <c r="G55">
+        <v>-0.0007176868188697314</v>
+      </c>
+      <c r="H55">
+        <v>-0.009235758176487124</v>
+      </c>
+      <c r="I55">
+        <v>-0.006779573392523595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1295567570807571</v>
+        <v>0.05596997376219877</v>
       </c>
       <c r="C56">
-        <v>0.1499241992020225</v>
+        <v>0.1887548044320563</v>
       </c>
       <c r="D56">
-        <v>0.004622651493413421</v>
+        <v>0.04085607247299052</v>
       </c>
       <c r="E56">
-        <v>-0.007799605135710246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03234871713291244</v>
+      </c>
+      <c r="F56">
+        <v>0.006763684134170792</v>
+      </c>
+      <c r="G56">
+        <v>-0.03739679887542671</v>
+      </c>
+      <c r="H56">
+        <v>-0.03755260602317696</v>
+      </c>
+      <c r="I56">
+        <v>0.006128333927849982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.0054156904794174</v>
+        <v>0.003911462233460782</v>
       </c>
       <c r="C58">
-        <v>0.01824530092581977</v>
+        <v>0.06371745297984552</v>
       </c>
       <c r="D58">
-        <v>0.2141723808320654</v>
+        <v>-0.2796783366599548</v>
       </c>
       <c r="E58">
-        <v>0.1430397196301985</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.04735848307788904</v>
+      </c>
+      <c r="F58">
+        <v>0.1330844686323872</v>
+      </c>
+      <c r="G58">
+        <v>-0.1584982186365977</v>
+      </c>
+      <c r="H58">
+        <v>-0.001396252683978881</v>
+      </c>
+      <c r="I58">
+        <v>0.0424352920075905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1875533151084501</v>
+        <v>0.2553943306914915</v>
       </c>
       <c r="C59">
-        <v>-0.1361891718147876</v>
+        <v>-0.05778973228705497</v>
       </c>
       <c r="D59">
-        <v>0.03900251950042187</v>
+        <v>-0.04834159795836449</v>
       </c>
       <c r="E59">
-        <v>0.03208864443896187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01925255505414539</v>
+      </c>
+      <c r="F59">
+        <v>0.02097884022113644</v>
+      </c>
+      <c r="G59">
+        <v>-0.01187362871492341</v>
+      </c>
+      <c r="H59">
+        <v>-0.0152716445819469</v>
+      </c>
+      <c r="I59">
+        <v>-0.03330185642999389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1829327781416943</v>
+        <v>0.1518874039304526</v>
       </c>
       <c r="C60">
-        <v>0.1064754428023787</v>
+        <v>0.1733256672845273</v>
       </c>
       <c r="D60">
-        <v>0.2121206980144123</v>
+        <v>-0.07715635993324392</v>
       </c>
       <c r="E60">
-        <v>-0.04480922066994619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1472823952238459</v>
+      </c>
+      <c r="F60">
+        <v>-0.1926252918494957</v>
+      </c>
+      <c r="G60">
+        <v>0.0984568310373982</v>
+      </c>
+      <c r="H60">
+        <v>0.2776413575595402</v>
+      </c>
+      <c r="I60">
+        <v>-0.185407542733051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02505746533523016</v>
+        <v>0.01287994581685852</v>
       </c>
       <c r="C61">
-        <v>0.05697697150085382</v>
+        <v>0.07846050961738391</v>
       </c>
       <c r="D61">
-        <v>0.0782161502815043</v>
+        <v>-0.064872802765904</v>
       </c>
       <c r="E61">
-        <v>0.002374774566038864</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0425760539550382</v>
+      </c>
+      <c r="F61">
+        <v>-0.01546428977934144</v>
+      </c>
+      <c r="G61">
+        <v>0.0704251536233052</v>
+      </c>
+      <c r="H61">
+        <v>-0.05265994177113655</v>
+      </c>
+      <c r="I61">
+        <v>0.03085873515085917</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01062141594137306</v>
+        <v>0.01014144634674491</v>
       </c>
       <c r="C63">
-        <v>0.02766054058365371</v>
+        <v>0.04143861097507602</v>
       </c>
       <c r="D63">
-        <v>0.07583547621041151</v>
+        <v>-0.05280987174640128</v>
       </c>
       <c r="E63">
-        <v>0.02929952609035859</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05897247569981957</v>
+      </c>
+      <c r="F63">
+        <v>0.02214569631169452</v>
+      </c>
+      <c r="G63">
+        <v>0.03902515439588812</v>
+      </c>
+      <c r="H63">
+        <v>-0.06180553412314874</v>
+      </c>
+      <c r="I63">
+        <v>0.03828357963739423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05394308701738864</v>
+        <v>0.01690685414264151</v>
       </c>
       <c r="C64">
-        <v>0.08618532926921399</v>
+        <v>0.102141894094644</v>
       </c>
       <c r="D64">
-        <v>0.0141876710999821</v>
+        <v>-0.008289139610113098</v>
       </c>
       <c r="E64">
-        <v>0.02293945342249703</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02309088977356517</v>
+      </c>
+      <c r="F64">
+        <v>0.0188739415054015</v>
+      </c>
+      <c r="G64">
+        <v>0.04761751650484219</v>
+      </c>
+      <c r="H64">
+        <v>-0.01674389482711998</v>
+      </c>
+      <c r="I64">
+        <v>0.04772338954712883</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02594173930471892</v>
+        <v>0.02370461679934098</v>
       </c>
       <c r="C65">
-        <v>0.0205841540674182</v>
+        <v>0.0479758745828385</v>
       </c>
       <c r="D65">
-        <v>0.1033118413840246</v>
+        <v>-0.1048470171022025</v>
       </c>
       <c r="E65">
-        <v>0.03172638770728706</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.05626044958933708</v>
+      </c>
+      <c r="F65">
+        <v>-0.004053815588069374</v>
+      </c>
+      <c r="G65">
+        <v>0.03805969543388291</v>
+      </c>
+      <c r="H65">
+        <v>0.02698361230326577</v>
+      </c>
+      <c r="I65">
+        <v>0.03180425158720346</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02183352687879076</v>
+        <v>0.003594553901582123</v>
       </c>
       <c r="C66">
-        <v>0.07293858474683565</v>
+        <v>0.1024600947350195</v>
       </c>
       <c r="D66">
-        <v>0.1206001139151785</v>
+        <v>-0.1110702222283502</v>
       </c>
       <c r="E66">
-        <v>0.01260178133020684</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.05444399984903716</v>
+      </c>
+      <c r="F66">
+        <v>-0.007697649967905305</v>
+      </c>
+      <c r="G66">
+        <v>0.03792609183901193</v>
+      </c>
+      <c r="H66">
+        <v>-0.05715380941694095</v>
+      </c>
+      <c r="I66">
+        <v>0.04057891276777107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02258513467116338</v>
+        <v>0.02012142734390748</v>
       </c>
       <c r="C67">
-        <v>0.022161163850105</v>
+        <v>0.03782901185721418</v>
       </c>
       <c r="D67">
-        <v>0.04362990380491107</v>
+        <v>-0.04324703363587251</v>
       </c>
       <c r="E67">
-        <v>-0.0171860034986674</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01922979828741749</v>
+      </c>
+      <c r="F67">
+        <v>-0.02693302555176273</v>
+      </c>
+      <c r="G67">
+        <v>0.02325868952703494</v>
+      </c>
+      <c r="H67">
+        <v>-0.05000899540227165</v>
+      </c>
+      <c r="I67">
+        <v>0.04695203196519106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2102260915998709</v>
+        <v>0.2773110756186613</v>
       </c>
       <c r="C68">
-        <v>-0.1473351017528481</v>
+        <v>-0.06418235125865333</v>
       </c>
       <c r="D68">
-        <v>0.02476084035151323</v>
+        <v>-0.02858097204429775</v>
       </c>
       <c r="E68">
-        <v>0.02032532449496709</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.0008691571992217896</v>
+      </c>
+      <c r="F68">
+        <v>0.02163953218127412</v>
+      </c>
+      <c r="G68">
+        <v>-0.08074565238373935</v>
+      </c>
+      <c r="H68">
+        <v>0.00698665872566407</v>
+      </c>
+      <c r="I68">
+        <v>-0.0114902569291713</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05191609454258573</v>
+        <v>0.01461712914299128</v>
       </c>
       <c r="C69">
-        <v>0.1201927488534329</v>
+        <v>0.1175850838068045</v>
       </c>
       <c r="D69">
-        <v>0.06872411653200795</v>
+        <v>-0.02125331615688865</v>
       </c>
       <c r="E69">
-        <v>0.01721327668327643</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01006248086815706</v>
+      </c>
+      <c r="F69">
+        <v>-0.01037998457723698</v>
+      </c>
+      <c r="G69">
+        <v>0.03707051660561439</v>
+      </c>
+      <c r="H69">
+        <v>-0.02505187384263615</v>
+      </c>
+      <c r="I69">
+        <v>0.01478778408401213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2194279172863351</v>
+        <v>0.2748266664933637</v>
       </c>
       <c r="C71">
-        <v>-0.1694453023061844</v>
+        <v>-0.08221641932983993</v>
       </c>
       <c r="D71">
-        <v>0.02379711813040547</v>
+        <v>-0.01427451530155872</v>
       </c>
       <c r="E71">
-        <v>0.01309655626286624</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001707213422712679</v>
+      </c>
+      <c r="F71">
+        <v>0.01587519800424024</v>
+      </c>
+      <c r="G71">
+        <v>-0.03404710752951784</v>
+      </c>
+      <c r="H71">
+        <v>-0.01754682438568104</v>
+      </c>
+      <c r="I71">
+        <v>0.009881829594938244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.09936563742108198</v>
+        <v>0.05957761065481403</v>
       </c>
       <c r="C72">
-        <v>0.07702372976433518</v>
+        <v>0.1271506316794376</v>
       </c>
       <c r="D72">
-        <v>0.1200796871677157</v>
+        <v>-0.05903851222537407</v>
       </c>
       <c r="E72">
-        <v>0.00895811414430496</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07575475868386068</v>
+      </c>
+      <c r="F72">
+        <v>-0.02114369972564066</v>
+      </c>
+      <c r="G72">
+        <v>0.06940493407195901</v>
+      </c>
+      <c r="H72">
+        <v>-0.005883301509766846</v>
+      </c>
+      <c r="I72">
+        <v>0.01526641311728079</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1722486738649578</v>
+        <v>0.1480337392104967</v>
       </c>
       <c r="C73">
-        <v>0.07526249219330393</v>
+        <v>0.1563777952014587</v>
       </c>
       <c r="D73">
-        <v>0.2540573165272228</v>
+        <v>-0.08311244005675801</v>
       </c>
       <c r="E73">
-        <v>-0.09383233880992292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2730398416705275</v>
+      </c>
+      <c r="F73">
+        <v>-0.2763953628048611</v>
+      </c>
+      <c r="G73">
+        <v>0.2710414011222595</v>
+      </c>
+      <c r="H73">
+        <v>0.3424859750126152</v>
+      </c>
+      <c r="I73">
+        <v>-0.1356398981589223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1027499534489076</v>
+        <v>0.05249628636037901</v>
       </c>
       <c r="C74">
-        <v>0.1187088466555262</v>
+        <v>0.1432790027391277</v>
       </c>
       <c r="D74">
-        <v>-0.0395469696173755</v>
+        <v>0.05058327087935421</v>
       </c>
       <c r="E74">
-        <v>0.02435653238751375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01542838460729082</v>
+      </c>
+      <c r="F74">
+        <v>0.02913068810979354</v>
+      </c>
+      <c r="G74">
+        <v>-0.00573585179731433</v>
+      </c>
+      <c r="H74">
+        <v>0.02086472897814185</v>
+      </c>
+      <c r="I74">
+        <v>-0.01202121601535167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2202824471036807</v>
+        <v>0.09896527176047377</v>
       </c>
       <c r="C75">
-        <v>0.2059286989842758</v>
+        <v>0.2643445461547264</v>
       </c>
       <c r="D75">
-        <v>-0.08827391958377481</v>
+        <v>0.128021296409084</v>
       </c>
       <c r="E75">
-        <v>-0.07843698162127266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09909930255634906</v>
+      </c>
+      <c r="F75">
+        <v>-0.04428773416764598</v>
+      </c>
+      <c r="G75">
+        <v>-0.09066225977850877</v>
+      </c>
+      <c r="H75">
+        <v>-0.05618510912136991</v>
+      </c>
+      <c r="I75">
+        <v>0.07354535639282911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1314681879570849</v>
+        <v>0.05712368661917522</v>
       </c>
       <c r="C76">
-        <v>0.1408520013593217</v>
+        <v>0.1774746042010727</v>
       </c>
       <c r="D76">
-        <v>0.0003051437594912551</v>
+        <v>0.05044682958197046</v>
       </c>
       <c r="E76">
-        <v>-0.01093790064503349</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02410389501328103</v>
+      </c>
+      <c r="F76">
+        <v>-0.001262139445936971</v>
+      </c>
+      <c r="G76">
+        <v>-0.02412196893651414</v>
+      </c>
+      <c r="H76">
+        <v>-0.04659570080952434</v>
+      </c>
+      <c r="I76">
+        <v>0.02657233878025308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01638162139242253</v>
+        <v>0.0001481761712389461</v>
       </c>
       <c r="C77">
-        <v>0.06937909962136146</v>
+        <v>0.1103755530580933</v>
       </c>
       <c r="D77">
-        <v>0.02196913542104815</v>
+        <v>-0.3904498917102136</v>
       </c>
       <c r="E77">
-        <v>0.04267167728637136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8242464450693981</v>
+      </c>
+      <c r="F77">
+        <v>-0.1983060787238888</v>
+      </c>
+      <c r="G77">
+        <v>0.09629837191691061</v>
+      </c>
+      <c r="H77">
+        <v>0.2009248883538125</v>
+      </c>
+      <c r="I77">
+        <v>-0.0265410395194095</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03059383848252722</v>
+        <v>0.01790952759660879</v>
       </c>
       <c r="C78">
-        <v>0.07739894582567992</v>
+        <v>0.09556003516415307</v>
       </c>
       <c r="D78">
-        <v>0.1406297025116008</v>
+        <v>-0.09773182594604275</v>
       </c>
       <c r="E78">
-        <v>0.0707034496453316</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06366201579921119</v>
+      </c>
+      <c r="F78">
+        <v>0.04929407982091253</v>
+      </c>
+      <c r="G78">
+        <v>-0.01092658673060477</v>
+      </c>
+      <c r="H78">
+        <v>-0.0858406741695673</v>
+      </c>
+      <c r="I78">
+        <v>-0.03092893672264229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.100419738601818</v>
+        <v>0.04100911151706831</v>
       </c>
       <c r="C79">
-        <v>0.1941474691937729</v>
+        <v>0.2024251581600026</v>
       </c>
       <c r="D79">
-        <v>-0.3628068141545711</v>
+        <v>0.1218050475064683</v>
       </c>
       <c r="E79">
-        <v>0.8237753050255948</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.09236128674450231</v>
+      </c>
+      <c r="F79">
+        <v>0.8004366791813223</v>
+      </c>
+      <c r="G79">
+        <v>0.1885000261815303</v>
+      </c>
+      <c r="H79">
+        <v>0.3897342585846026</v>
+      </c>
+      <c r="I79">
+        <v>-0.08868751243886869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.004644952838486683</v>
+        <v>0.007060374476823416</v>
       </c>
       <c r="C80">
-        <v>0.0458170451390949</v>
+        <v>0.04544250625787068</v>
       </c>
       <c r="D80">
-        <v>0.0480442596383642</v>
+        <v>-0.03371260589262233</v>
       </c>
       <c r="E80">
-        <v>0.005201710598436652</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04786448832093714</v>
+      </c>
+      <c r="F80">
+        <v>-0.0004628303023282004</v>
+      </c>
+      <c r="G80">
+        <v>0.01632278185980356</v>
+      </c>
+      <c r="H80">
+        <v>-0.04589788228944681</v>
+      </c>
+      <c r="I80">
+        <v>-0.07788809956077132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1115620148668681</v>
+        <v>0.04029793462236975</v>
       </c>
       <c r="C81">
-        <v>0.1371479162911876</v>
+        <v>0.1627306914590633</v>
       </c>
       <c r="D81">
-        <v>-0.08279939184845045</v>
+        <v>0.07719049202707103</v>
       </c>
       <c r="E81">
-        <v>0.009878998300263593</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05358292667261547</v>
+      </c>
+      <c r="F81">
+        <v>0.05478614124244149</v>
+      </c>
+      <c r="G81">
+        <v>-0.02556232208374124</v>
+      </c>
+      <c r="H81">
+        <v>-0.09091067546732229</v>
+      </c>
+      <c r="I81">
+        <v>0.01211036908247243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2335151224617844</v>
+        <v>0.08517159631336389</v>
       </c>
       <c r="C82">
-        <v>0.2993126930871254</v>
+        <v>0.3074974105918885</v>
       </c>
       <c r="D82">
-        <v>-0.1565445510934785</v>
+        <v>0.2353771428273166</v>
       </c>
       <c r="E82">
-        <v>-0.2248586469976214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07982995632958648</v>
+      </c>
+      <c r="F82">
+        <v>-0.1294930843081418</v>
+      </c>
+      <c r="G82">
+        <v>-0.05053280938006033</v>
+      </c>
+      <c r="H82">
+        <v>-0.1499716259845904</v>
+      </c>
+      <c r="I82">
+        <v>0.02635573095233973</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01157062345637765</v>
+        <v>-0.01226868085728961</v>
       </c>
       <c r="C83">
-        <v>0.05275188681644577</v>
+        <v>0.02117678922961579</v>
       </c>
       <c r="D83">
-        <v>0.002667366096108876</v>
+        <v>-0.0250777175908327</v>
       </c>
       <c r="E83">
-        <v>0.03396956585669988</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0888364121965402</v>
+      </c>
+      <c r="F83">
+        <v>0.0627456455133894</v>
+      </c>
+      <c r="G83">
+        <v>0.01184873148117811</v>
+      </c>
+      <c r="H83">
+        <v>-0.3427668787456051</v>
+      </c>
+      <c r="I83">
+        <v>-0.8691020063372709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0002451776793353069</v>
+        <v>-0.004589280726549612</v>
       </c>
       <c r="C84">
-        <v>-0.001579308450645663</v>
+        <v>0.01770266926231837</v>
       </c>
       <c r="D84">
-        <v>-3.837329583488714e-05</v>
+        <v>-0.04145541440712684</v>
       </c>
       <c r="E84">
-        <v>-0.002599657772162783</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.005169745382390795</v>
+      </c>
+      <c r="F84">
+        <v>0.03010919814863946</v>
+      </c>
+      <c r="G84">
+        <v>-0.02790595986326725</v>
+      </c>
+      <c r="H84">
+        <v>-0.04705522540288411</v>
+      </c>
+      <c r="I84">
+        <v>0.06851885872719954</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.13509544799969</v>
+        <v>0.05476784612057004</v>
       </c>
       <c r="C85">
-        <v>0.1442242626000847</v>
+        <v>0.1773398858980572</v>
       </c>
       <c r="D85">
-        <v>-0.06220116858927718</v>
+        <v>0.1072004976881909</v>
       </c>
       <c r="E85">
-        <v>0.03127326173358477</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.007206223805835106</v>
+      </c>
+      <c r="F85">
+        <v>0.06774408941121454</v>
+      </c>
+      <c r="G85">
+        <v>-0.03061776407211951</v>
+      </c>
+      <c r="H85">
+        <v>0.00175083605127731</v>
+      </c>
+      <c r="I85">
+        <v>0.01048375172123847</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02029406432163822</v>
+        <v>0.01513222036202636</v>
       </c>
       <c r="C86">
-        <v>0.01208566562534291</v>
+        <v>0.04029909056636183</v>
       </c>
       <c r="D86">
-        <v>0.09268537517444317</v>
+        <v>-0.1084843575713988</v>
       </c>
       <c r="E86">
-        <v>0.03589088793045067</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01520414509362435</v>
+      </c>
+      <c r="F86">
+        <v>0.01835058015601668</v>
+      </c>
+      <c r="G86">
+        <v>0.01688173018114915</v>
+      </c>
+      <c r="H86">
+        <v>0.01216990448678826</v>
+      </c>
+      <c r="I86">
+        <v>0.02802103098265349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02206701091618771</v>
+        <v>0.01070771211212058</v>
       </c>
       <c r="C87">
-        <v>0.03242981743163306</v>
+        <v>0.06653042146839348</v>
       </c>
       <c r="D87">
-        <v>0.122056607360077</v>
+        <v>-0.1352807810474939</v>
       </c>
       <c r="E87">
-        <v>0.06982295532123441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.02275000767584733</v>
+      </c>
+      <c r="F87">
+        <v>0.04379665806541739</v>
+      </c>
+      <c r="G87">
+        <v>-0.01691383956984743</v>
+      </c>
+      <c r="H87">
+        <v>-0.08888427327242571</v>
+      </c>
+      <c r="I87">
+        <v>0.01036253116372312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05021477683081657</v>
+        <v>0.0333979775100918</v>
       </c>
       <c r="C88">
-        <v>0.04590121311598034</v>
+        <v>0.06955671176617947</v>
       </c>
       <c r="D88">
-        <v>0.007846866868900145</v>
+        <v>-0.01318059124145289</v>
       </c>
       <c r="E88">
-        <v>0.02621201531719809</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02603056615178637</v>
+      </c>
+      <c r="F88">
+        <v>0.01974276506368405</v>
+      </c>
+      <c r="G88">
+        <v>0.02259037108141694</v>
+      </c>
+      <c r="H88">
+        <v>-0.001598938553572458</v>
+      </c>
+      <c r="I88">
+        <v>0.02583696140296647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3314248179780533</v>
+        <v>0.4040892189184805</v>
       </c>
       <c r="C89">
-        <v>-0.313191739428224</v>
+        <v>-0.1563331619723659</v>
       </c>
       <c r="D89">
-        <v>0.005724481527215216</v>
+        <v>-0.04591725925173117</v>
       </c>
       <c r="E89">
-        <v>0.09042385361044825</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04623400470890095</v>
+      </c>
+      <c r="F89">
+        <v>0.05945261144822766</v>
+      </c>
+      <c r="G89">
+        <v>0.04236826944498011</v>
+      </c>
+      <c r="H89">
+        <v>-0.1526448028491184</v>
+      </c>
+      <c r="I89">
+        <v>-0.04494257494482088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2654517668410089</v>
+        <v>0.3206962986480681</v>
       </c>
       <c r="C90">
-        <v>-0.2276995000227211</v>
+        <v>-0.1047736831910317</v>
       </c>
       <c r="D90">
-        <v>0.05535194195075403</v>
+        <v>-0.03244869381036759</v>
       </c>
       <c r="E90">
-        <v>-0.001783647941643054</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.005420395636388801</v>
+      </c>
+      <c r="F90">
+        <v>-0.007242907201439172</v>
+      </c>
+      <c r="G90">
+        <v>-0.05910701393762793</v>
+      </c>
+      <c r="H90">
+        <v>-0.03873734168150266</v>
+      </c>
+      <c r="I90">
+        <v>-0.006888275746183064</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.147086891202825</v>
+        <v>0.06674434145766521</v>
       </c>
       <c r="C91">
-        <v>0.190941606991009</v>
+        <v>0.2036252895511902</v>
       </c>
       <c r="D91">
-        <v>-0.1094868541478718</v>
+        <v>0.1109404278636247</v>
       </c>
       <c r="E91">
-        <v>0.03928244900645053</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07128661612937041</v>
+      </c>
+      <c r="F91">
+        <v>0.05760422256092534</v>
+      </c>
+      <c r="G91">
+        <v>-0.01342269304651061</v>
+      </c>
+      <c r="H91">
+        <v>-0.003236032699686078</v>
+      </c>
+      <c r="I91">
+        <v>-0.02536817774176625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2484918300313946</v>
+        <v>0.3381855203936468</v>
       </c>
       <c r="C92">
-        <v>-0.2558981415850465</v>
+        <v>-0.1437926305426274</v>
       </c>
       <c r="D92">
-        <v>-0.05205117287377752</v>
+        <v>-0.01835483224356929</v>
       </c>
       <c r="E92">
-        <v>0.02318774801880651</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06649835655466246</v>
+      </c>
+      <c r="F92">
+        <v>0.04400491311179373</v>
+      </c>
+      <c r="G92">
+        <v>-0.01560418198036118</v>
+      </c>
+      <c r="H92">
+        <v>-0.001153846467568179</v>
+      </c>
+      <c r="I92">
+        <v>0.1390476193265069</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2893772295462804</v>
+        <v>0.3336000142941979</v>
       </c>
       <c r="C93">
-        <v>-0.2412630357531328</v>
+        <v>-0.1150107746445927</v>
       </c>
       <c r="D93">
-        <v>0.002296037967389646</v>
+        <v>0.01753046374252675</v>
       </c>
       <c r="E93">
-        <v>0.01371381458279636</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02102562013929759</v>
+      </c>
+      <c r="F93">
+        <v>0.01206153006087442</v>
+      </c>
+      <c r="G93">
+        <v>0.003162132068633395</v>
+      </c>
+      <c r="H93">
+        <v>0.03679433055392892</v>
+      </c>
+      <c r="I93">
+        <v>0.02478470671558747</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2752828504259743</v>
+        <v>0.1221843601071635</v>
       </c>
       <c r="C94">
-        <v>0.2731078851325741</v>
+        <v>0.3345670220068024</v>
       </c>
       <c r="D94">
-        <v>-0.2485832785964976</v>
+        <v>0.3529845293664152</v>
       </c>
       <c r="E94">
-        <v>-0.2887461354442469</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.07755003354810915</v>
+      </c>
+      <c r="F94">
+        <v>-0.1374294113895312</v>
+      </c>
+      <c r="G94">
+        <v>-0.3008824898188396</v>
+      </c>
+      <c r="H94">
+        <v>-0.1122513314093166</v>
+      </c>
+      <c r="I94">
+        <v>0.05246206316184365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.00870578833322953</v>
+        <v>0.01353176909587878</v>
       </c>
       <c r="C95">
-        <v>0.03968888384586097</v>
+        <v>0.06542779793706702</v>
       </c>
       <c r="D95">
-        <v>-0.001210470490826326</v>
+        <v>-0.1033048704031173</v>
       </c>
       <c r="E95">
-        <v>0.002592597432929659</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1405044438979463</v>
+      </c>
+      <c r="F95">
+        <v>-0.03457994948986823</v>
+      </c>
+      <c r="G95">
+        <v>0.2240554994308695</v>
+      </c>
+      <c r="H95">
+        <v>-0.181782818565492</v>
+      </c>
+      <c r="I95">
+        <v>0.18926811936146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001701784825739723</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0007686610639198116</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0005038310171759729</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003166567441072336</v>
+      </c>
+      <c r="F97">
+        <v>0.0005693854858407688</v>
+      </c>
+      <c r="G97">
+        <v>0.0001712435011671567</v>
+      </c>
+      <c r="H97">
+        <v>-0.002420357771426515</v>
+      </c>
+      <c r="I97">
+        <v>0.006697049858849589</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1509992881026246</v>
+        <v>0.1302044174640289</v>
       </c>
       <c r="C98">
-        <v>0.0937475766943411</v>
+        <v>0.1608794533320393</v>
       </c>
       <c r="D98">
-        <v>0.16692565524137</v>
+        <v>-0.04735280966196662</v>
       </c>
       <c r="E98">
-        <v>-0.09541354366581922</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1896647600072462</v>
+      </c>
+      <c r="F98">
+        <v>-0.2290866796733462</v>
+      </c>
+      <c r="G98">
+        <v>0.1840916154505292</v>
+      </c>
+      <c r="H98">
+        <v>0.2804443290309691</v>
+      </c>
+      <c r="I98">
+        <v>-0.1562496458633001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00284337708338802</v>
+        <v>0.001810889144124799</v>
       </c>
       <c r="C101">
-        <v>0.02272868986503762</v>
+        <v>0.03960806970448631</v>
       </c>
       <c r="D101">
-        <v>0.07710299525381514</v>
+        <v>-0.08973604672256949</v>
       </c>
       <c r="E101">
-        <v>0.03721339908526394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.06954670161332042</v>
+      </c>
+      <c r="F101">
+        <v>0.02875197002000357</v>
+      </c>
+      <c r="G101">
+        <v>0.0997680950517803</v>
+      </c>
+      <c r="H101">
+        <v>-0.1397541321521049</v>
+      </c>
+      <c r="I101">
+        <v>0.02782717314940775</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1011418601663292</v>
+        <v>0.02632803498547353</v>
       </c>
       <c r="C102">
-        <v>0.1608662524266038</v>
+        <v>0.1444395545206904</v>
       </c>
       <c r="D102">
-        <v>-0.05332198988307789</v>
+        <v>0.1043605412158732</v>
       </c>
       <c r="E102">
-        <v>-0.1043247619946002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04828563399980711</v>
+      </c>
+      <c r="F102">
+        <v>-0.08220693589789368</v>
+      </c>
+      <c r="G102">
+        <v>0.01316973385377929</v>
+      </c>
+      <c r="H102">
+        <v>-0.0358515100732317</v>
+      </c>
+      <c r="I102">
+        <v>-0.007486214714648821</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
